--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06004200-EF5C-414A-9C08-232B895EE6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9FA558-27D9-4EB4-BBD3-0A5730EAA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{B9020844-DC09-4E1A-9B92-30BE4E7D1A13}"/>
   </bookViews>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1228">
   <si>
     <t>KCN vân đồn</t>
   </si>
@@ -2674,9 +2674,6 @@
     <t>Quãng đường đi (km)</t>
   </si>
   <si>
-    <t>Tàu cao tốc</t>
-  </si>
-  <si>
     <t>Superdong 01</t>
   </si>
   <si>
@@ -2716,9 +2713,6 @@
     <t>Gần Ao Tiên</t>
   </si>
   <si>
-    <t>Tàu gỗ du lịch</t>
-  </si>
-  <si>
     <t>Ha Long Express</t>
   </si>
   <si>
@@ -2741,9 +2735,6 @@
   </si>
   <si>
     <t>Không theo dõi (gần Sơn Hào)</t>
-  </si>
-  <si>
-    <t>Tàu cruise cao cấp</t>
   </si>
   <si>
     <t>Crystal Holidays 992</t>
@@ -5950,6 +5941,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5968,7 +5962,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5980,95 +5986,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6103,6 +6028,18 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6112,11 +6049,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6174,9 +6168,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7061,12 +7052,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.399999999999999">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" ht="15.6">
@@ -7153,12 +7144,12 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="17.399999999999999">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
     </row>
     <row r="11" spans="2:6" ht="15.6">
       <c r="B11" s="5" t="s">
@@ -7302,22 +7293,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="193"/>
+      <c r="C2" s="198"/>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="194"/>
+      <c r="C3" s="193"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="189"/>
+      <c r="C4" s="190"/>
     </row>
     <row r="5" spans="1:5" ht="15.6">
       <c r="B5" s="19" t="s">
@@ -7407,10 +7398,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.6">
       <c r="A15" s="6"/>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="189"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
@@ -7482,10 +7473,10 @@
     </row>
     <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="6"/>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="189"/>
+      <c r="C22" s="190"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
@@ -7559,10 +7550,10 @@
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="189"/>
+      <c r="C29" s="190"/>
     </row>
     <row r="30" spans="1:6" ht="15.6">
       <c r="B30" s="106" t="s">
@@ -7639,10 +7630,10 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.6">
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="189"/>
+      <c r="C39" s="190"/>
     </row>
     <row r="40" spans="2:3" ht="15.6">
       <c r="B40" s="14" t="s">
@@ -7693,10 +7684,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.6">
-      <c r="B46" s="190" t="s">
+      <c r="B46" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="191"/>
+      <c r="C46" s="196"/>
     </row>
     <row r="47" spans="2:3" ht="31.2">
       <c r="B47" s="74" t="s">
@@ -7756,22 +7747,22 @@
       </c>
     </row>
     <row r="53" spans="2:17" ht="17.399999999999999">
-      <c r="B53" s="194" t="s">
+      <c r="B53" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="194"/>
+      <c r="C53" s="193"/>
     </row>
     <row r="54" spans="2:17" ht="15.6">
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="189" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="189"/>
+      <c r="C54" s="190"/>
     </row>
     <row r="55" spans="2:17" ht="15.6">
-      <c r="B55" s="195" t="s">
+      <c r="B55" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="196"/>
+      <c r="C55" s="192"/>
     </row>
     <row r="56" spans="2:17" ht="15.6">
       <c r="B56" s="14" t="s">
@@ -7846,10 +7837,10 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.6">
-      <c r="B65" s="190" t="s">
+      <c r="B65" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="197"/>
+      <c r="C65" s="195"/>
     </row>
     <row r="66" spans="2:6" ht="15.6">
       <c r="B66" s="19" t="s">
@@ -7876,10 +7867,10 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.6">
-      <c r="B69" s="188" t="s">
+      <c r="B69" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="189"/>
+      <c r="C69" s="190"/>
     </row>
     <row r="70" spans="2:6" ht="15.6">
       <c r="B70" s="61" t="s">
@@ -7914,10 +7905,10 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.6">
-      <c r="B74" s="188" t="s">
+      <c r="B74" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="189"/>
+      <c r="C74" s="190"/>
     </row>
     <row r="75" spans="2:6" ht="15.6">
       <c r="B75" s="14" t="s">
@@ -7959,10 +7950,10 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="15.6">
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="189"/>
+      <c r="C80" s="190"/>
     </row>
     <row r="81" spans="2:7" ht="15.6">
       <c r="B81" s="14" t="s">
@@ -7989,10 +7980,10 @@
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.6">
-      <c r="B84" s="195" t="s">
+      <c r="B84" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="196"/>
+      <c r="C84" s="192"/>
     </row>
     <row r="85" spans="2:7" ht="15.6">
       <c r="B85" s="14" t="s">
@@ -8011,10 +8002,10 @@
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.6">
-      <c r="B87" s="188" t="s">
+      <c r="B87" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="189"/>
+      <c r="C87" s="190"/>
     </row>
     <row r="88" spans="2:7" ht="15.6">
       <c r="B88" s="61" t="s">
@@ -8074,10 +8065,10 @@
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.6">
-      <c r="B95" s="195" t="s">
+      <c r="B95" s="191" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="196"/>
+      <c r="C95" s="192"/>
     </row>
     <row r="96" spans="2:7" ht="15.6">
       <c r="B96" s="18" t="s">
@@ -8096,10 +8087,10 @@
       </c>
     </row>
     <row r="98" spans="2:3" ht="15.6">
-      <c r="B98" s="195" t="s">
+      <c r="B98" s="191" t="s">
         <v>178</v>
       </c>
-      <c r="C98" s="196"/>
+      <c r="C98" s="192"/>
     </row>
     <row r="99" spans="2:3" ht="15.6">
       <c r="B99" s="19" t="s">
@@ -8126,16 +8117,16 @@
       </c>
     </row>
     <row r="102" spans="2:3" ht="15.6">
-      <c r="B102" s="188" t="s">
+      <c r="B102" s="189" t="s">
         <v>185</v>
       </c>
-      <c r="C102" s="189"/>
+      <c r="C102" s="190"/>
     </row>
     <row r="103" spans="2:3" ht="15.6">
-      <c r="B103" s="195" t="s">
+      <c r="B103" s="191" t="s">
         <v>186</v>
       </c>
-      <c r="C103" s="196"/>
+      <c r="C103" s="192"/>
     </row>
     <row r="104" spans="2:3" ht="15.6">
       <c r="B104" s="14" t="s">
@@ -8154,10 +8145,10 @@
       </c>
     </row>
     <row r="106" spans="2:3" ht="15.6">
-      <c r="B106" s="195" t="s">
+      <c r="B106" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="196"/>
+      <c r="C106" s="192"/>
     </row>
     <row r="107" spans="2:3" ht="15.6">
       <c r="B107" s="14" t="s">
@@ -8176,10 +8167,10 @@
       </c>
     </row>
     <row r="109" spans="2:3" ht="15.6">
-      <c r="B109" s="195" t="s">
+      <c r="B109" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="C109" s="196"/>
+      <c r="C109" s="192"/>
     </row>
     <row r="110" spans="2:3" ht="15.6">
       <c r="B110" s="14" t="s">
@@ -8214,10 +8205,10 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="15.6">
-      <c r="B114" s="188" t="s">
+      <c r="B114" s="189" t="s">
         <v>196</v>
       </c>
-      <c r="C114" s="189"/>
+      <c r="C114" s="190"/>
     </row>
     <row r="115" spans="2:6" ht="15.6">
       <c r="B115" s="61" t="s">
@@ -8269,22 +8260,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B46:C46"/>
@@ -8293,6 +8268,22 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B109:C109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8332,17 +8323,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="222" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
     </row>
     <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="223"/>
+      <c r="A3" s="200"/>
       <c r="B3" s="69" t="s">
         <v>207</v>
       </c>
@@ -8354,17 +8345,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="223"/>
-      <c r="B4" s="213" t="s">
+      <c r="A4" s="200"/>
+      <c r="B4" s="220" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="220" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="214"/>
+      <c r="D4" s="221"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="223"/>
+      <c r="A5" s="200"/>
       <c r="B5" s="86" t="s">
         <v>179</v>
       </c>
@@ -8376,7 +8367,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="223"/>
+      <c r="A6" s="200"/>
       <c r="B6" s="86" t="s">
         <v>210</v>
       </c>
@@ -8388,7 +8379,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="223"/>
+      <c r="A7" s="200"/>
       <c r="B7" s="86" t="s">
         <v>211</v>
       </c>
@@ -8400,7 +8391,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="223"/>
+      <c r="A8" s="200"/>
       <c r="B8" s="86" t="s">
         <v>212</v>
       </c>
@@ -8412,7 +8403,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="223"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="86" t="s">
         <v>213</v>
       </c>
@@ -8424,7 +8415,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="223"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="86" t="s">
         <v>200</v>
       </c>
@@ -8436,7 +8427,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="223"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="86" t="s">
         <v>201</v>
       </c>
@@ -8448,15 +8439,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="223"/>
-      <c r="B12" s="213" t="s">
+      <c r="A12" s="200"/>
+      <c r="B12" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="221"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="223"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="83" t="s">
         <v>215</v>
       </c>
@@ -8468,7 +8459,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="223"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="83" t="s">
         <v>217</v>
       </c>
@@ -8481,7 +8472,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="223"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="83" t="s">
         <v>219</v>
       </c>
@@ -8491,7 +8482,7 @@
       <c r="D15" s="83"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="223"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="83" t="s">
         <v>221</v>
       </c>
@@ -8505,7 +8496,7 @@
       <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" ht="27.6">
-      <c r="A17" s="223"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="83" t="s">
         <v>223</v>
       </c>
@@ -8517,7 +8508,7 @@
       <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="223"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="83" t="s">
         <v>225</v>
       </c>
@@ -8529,7 +8520,7 @@
       <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="223"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="83" t="s">
         <v>227</v>
       </c>
@@ -8541,7 +8532,7 @@
       <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" ht="27.6">
-      <c r="A20" s="223"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="83" t="s">
         <v>228</v>
       </c>
@@ -8553,7 +8544,7 @@
       <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="223"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="83" t="s">
         <v>225</v>
       </c>
@@ -8565,7 +8556,7 @@
       <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="223"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="83" t="s">
         <v>231</v>
       </c>
@@ -8577,7 +8568,7 @@
       <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="223"/>
+      <c r="A23" s="200"/>
       <c r="B23" s="83" t="s">
         <v>167</v>
       </c>
@@ -8589,7 +8580,7 @@
       <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6" ht="27.6">
-      <c r="A24" s="223"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="83" t="s">
         <v>225</v>
       </c>
@@ -8601,17 +8592,17 @@
       <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="223"/>
-      <c r="B25" s="213" t="s">
+      <c r="A25" s="200"/>
+      <c r="B25" s="220" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="223"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="83" t="s">
         <v>235</v>
       </c>
@@ -8623,7 +8614,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A27" s="223"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="83" t="s">
         <v>237</v>
       </c>
@@ -8635,7 +8626,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="223"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="83" t="s">
         <v>240</v>
       </c>
@@ -8647,7 +8638,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="27.6">
-      <c r="A29" s="223"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="83" t="s">
         <v>241</v>
       </c>
@@ -8659,7 +8650,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="223"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="83" t="s">
         <v>244</v>
       </c>
@@ -8671,7 +8662,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="27.6">
-      <c r="A31" s="223"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="83" t="s">
         <v>245</v>
       </c>
@@ -8683,7 +8674,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27.6">
-      <c r="A32" s="223"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="83" t="s">
         <v>248</v>
       </c>
@@ -8695,15 +8686,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="223"/>
-      <c r="B33" s="213" t="s">
+      <c r="A33" s="200"/>
+      <c r="B33" s="220" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="221"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="223"/>
+      <c r="A34" s="200"/>
       <c r="B34" s="24" t="s">
         <v>252</v>
       </c>
@@ -8713,7 +8704,7 @@
       <c r="D34" s="54"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="223"/>
+      <c r="A35" s="200"/>
       <c r="B35" s="24" t="s">
         <v>253</v>
       </c>
@@ -8725,7 +8716,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="223"/>
+      <c r="A36" s="200"/>
       <c r="B36" s="24" t="s">
         <v>256</v>
       </c>
@@ -8735,7 +8726,7 @@
       <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4" ht="14.4">
-      <c r="A37" s="223"/>
+      <c r="A37" s="200"/>
       <c r="B37" s="25" t="s">
         <v>257</v>
       </c>
@@ -8747,38 +8738,38 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="225"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999">
-      <c r="A39" s="222" t="s">
+      <c r="A39" s="199" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="224" t="s">
         <v>260</v>
       </c>
-      <c r="C39" s="215"/>
-      <c r="D39" s="216"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="225"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="222"/>
-      <c r="B40" s="217" t="s">
+      <c r="A40" s="199"/>
+      <c r="B40" s="228" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="219"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="230"/>
     </row>
     <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="222"/>
-      <c r="B41" s="220" t="s">
+      <c r="A41" s="199"/>
+      <c r="B41" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="220"/>
-      <c r="D41" s="221"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="232"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="222"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="26" t="s">
         <v>263</v>
       </c>
@@ -8788,7 +8779,7 @@
       <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="222"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="165" t="s">
         <v>265</v>
       </c>
@@ -8800,7 +8791,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="222"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="32" t="s">
         <v>267</v>
       </c>
@@ -8810,7 +8801,7 @@
       <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="222"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="32" t="s">
         <v>269</v>
       </c>
@@ -8820,7 +8811,7 @@
       <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="222"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="32" t="s">
         <v>271</v>
       </c>
@@ -8830,7 +8821,7 @@
       <c r="D46" s="58"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="222"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="163" t="s">
         <v>272</v>
       </c>
@@ -8842,7 +8833,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="222"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="32" t="s">
         <v>275</v>
       </c>
@@ -8855,7 +8846,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="222"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="163" t="s">
         <v>69</v>
       </c>
@@ -8867,7 +8858,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="222"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="32" t="s">
         <v>277</v>
       </c>
@@ -8882,7 +8873,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="222"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="163" t="s">
         <v>281</v>
       </c>
@@ -8892,7 +8883,7 @@
       <c r="D51" s="167"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="222"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="32" t="s">
         <v>283</v>
       </c>
@@ -8904,7 +8895,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="222"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="32" t="s">
         <v>285</v>
       </c>
@@ -8914,15 +8905,15 @@
       <c r="D53" s="58"/>
     </row>
     <row r="54" spans="1:9" ht="15.6">
-      <c r="A54" s="222"/>
-      <c r="B54" s="198" t="s">
+      <c r="A54" s="199"/>
+      <c r="B54" s="226" t="s">
         <v>286</v>
       </c>
-      <c r="C54" s="199"/>
-      <c r="D54" s="200"/>
+      <c r="C54" s="201"/>
+      <c r="D54" s="227"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="222"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="165" t="s">
         <v>287</v>
       </c>
@@ -8934,7 +8925,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="222"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="165" t="s">
         <v>288</v>
       </c>
@@ -8944,7 +8935,7 @@
       <c r="D56" s="167"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="222"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="163" t="s">
         <v>290</v>
       </c>
@@ -8954,7 +8945,7 @@
       <c r="D57" s="167"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="222"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="165" t="s">
         <v>292</v>
       </c>
@@ -8964,15 +8955,15 @@
       <c r="D58" s="167"/>
     </row>
     <row r="59" spans="1:9" ht="15.6">
-      <c r="A59" s="222"/>
-      <c r="B59" s="198" t="s">
+      <c r="A59" s="199"/>
+      <c r="B59" s="226" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="199"/>
-      <c r="D59" s="200"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="227"/>
     </row>
     <row r="60" spans="1:9" ht="14.4">
-      <c r="A60" s="222"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="165" t="s">
         <v>295</v>
       </c>
@@ -8986,7 +8977,7 @@
       <c r="H60" s="36"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="222"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="165" t="s">
         <v>297</v>
       </c>
@@ -8998,7 +8989,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="222"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="165" t="s">
         <v>298</v>
       </c>
@@ -9010,7 +9001,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="222"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="170" t="s">
         <v>299</v>
       </c>
@@ -9022,61 +9013,61 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="B64" s="227"/>
-      <c r="C64" s="228"/>
-      <c r="D64" s="229"/>
+      <c r="B64" s="205"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="207"/>
     </row>
     <row r="65" spans="1:8" ht="17.399999999999999">
-      <c r="B65" s="234" t="s">
+      <c r="B65" s="212" t="s">
         <v>300</v>
       </c>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
+      <c r="C65" s="212"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="212"/>
+      <c r="G65" s="212"/>
+      <c r="H65" s="212"/>
     </row>
     <row r="66" spans="1:8" ht="93.75" customHeight="1">
-      <c r="B66" s="211" t="s">
+      <c r="B66" s="239" t="s">
         <v>301</v>
       </c>
-      <c r="C66" s="212"/>
-      <c r="D66" s="212"/>
+      <c r="C66" s="240"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="90" t="s">
         <v>302</v>
       </c>
       <c r="F66" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="G66" s="203" t="s">
+      <c r="G66" s="235" t="s">
         <v>304</v>
       </c>
-      <c r="H66" s="203"/>
+      <c r="H66" s="235"/>
     </row>
     <row r="67" spans="1:8" ht="24.75" customHeight="1">
-      <c r="B67" s="233" t="s">
+      <c r="B67" s="211" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="232"/>
-      <c r="D67" s="232"/>
-      <c r="E67" s="232"/>
-      <c r="F67" s="232"/>
-      <c r="G67" s="232"/>
-      <c r="H67" s="232"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="210"/>
+      <c r="F67" s="210"/>
+      <c r="G67" s="210"/>
+      <c r="H67" s="210"/>
     </row>
     <row r="68" spans="1:8" ht="15.6">
-      <c r="B68" s="198" t="s">
+      <c r="B68" s="226" t="s">
         <v>306</v>
       </c>
-      <c r="C68" s="199"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="204" t="s">
+      <c r="C68" s="201"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="213" t="s">
         <v>306</v>
       </c>
-      <c r="F68" s="205"/>
-      <c r="G68" s="205"/>
-      <c r="H68" s="205"/>
+      <c r="F68" s="214"/>
+      <c r="G68" s="214"/>
+      <c r="H68" s="214"/>
     </row>
     <row r="69" spans="1:8" ht="15.6">
       <c r="B69" s="110" t="s">
@@ -9241,17 +9232,17 @@
       <c r="H76" s="56"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B77" s="198" t="s">
+      <c r="B77" s="226" t="s">
         <v>322</v>
       </c>
-      <c r="C77" s="199"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="206" t="s">
+      <c r="C77" s="201"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="F77" s="207"/>
-      <c r="G77" s="207"/>
-      <c r="H77" s="208"/>
+      <c r="F77" s="237"/>
+      <c r="G77" s="237"/>
+      <c r="H77" s="238"/>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" s="32" t="s">
@@ -9316,19 +9307,19 @@
       <c r="H80" s="56"/>
     </row>
     <row r="81" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B81" s="198" t="s">
+      <c r="B81" s="226" t="s">
         <v>339</v>
       </c>
-      <c r="C81" s="199" t="s">
+      <c r="C81" s="201" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="200"/>
-      <c r="E81" s="204" t="s">
+      <c r="D81" s="227"/>
+      <c r="E81" s="213" t="s">
         <v>341</v>
       </c>
-      <c r="F81" s="205"/>
-      <c r="G81" s="205"/>
-      <c r="H81" s="208"/>
+      <c r="F81" s="214"/>
+      <c r="G81" s="214"/>
+      <c r="H81" s="238"/>
       <c r="I81">
         <f>SUM(I82:I88)</f>
         <v>2220</v>
@@ -9637,17 +9628,17 @@
       </c>
     </row>
     <row r="89" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B89" s="209" t="s">
+      <c r="B89" s="215" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="210"/>
-      <c r="D89" s="235"/>
-      <c r="E89" s="209" t="s">
+      <c r="C89" s="216"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="215" t="s">
         <v>378</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="G89" s="210"/>
-      <c r="H89" s="208"/>
+      <c r="F89" s="216"/>
+      <c r="G89" s="216"/>
+      <c r="H89" s="238"/>
     </row>
     <row r="90" spans="2:14">
       <c r="B90" s="56" t="s">
@@ -9809,15 +9800,15 @@
       <c r="H96" s="56"/>
     </row>
     <row r="97" spans="2:8" ht="17.399999999999999">
-      <c r="B97" s="230" t="s">
+      <c r="B97" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="C97" s="231"/>
-      <c r="D97" s="231"/>
-      <c r="E97" s="232"/>
-      <c r="F97" s="232"/>
-      <c r="G97" s="232"/>
-      <c r="H97" s="231"/>
+      <c r="C97" s="209"/>
+      <c r="D97" s="209"/>
+      <c r="E97" s="210"/>
+      <c r="F97" s="210"/>
+      <c r="G97" s="210"/>
+      <c r="H97" s="209"/>
     </row>
     <row r="98" spans="2:8" ht="15.6">
       <c r="B98" s="165" t="s">
@@ -9843,13 +9834,13 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="15.6" hidden="1">
-      <c r="B99" s="198" t="s">
+      <c r="B99" s="226" t="s">
         <v>412</v>
       </c>
-      <c r="C99" s="199" t="s">
+      <c r="C99" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="200"/>
+      <c r="D99" s="227"/>
       <c r="E99" s="94"/>
       <c r="F99" s="94"/>
       <c r="G99" s="94"/>
@@ -9913,15 +9904,15 @@
       <c r="H104" s="95"/>
     </row>
     <row r="105" spans="2:8" ht="15.6">
-      <c r="B105" s="204" t="s">
+      <c r="B105" s="213" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="205"/>
-      <c r="D105" s="205"/>
-      <c r="E105" s="205"/>
-      <c r="F105" s="205"/>
-      <c r="G105" s="205"/>
-      <c r="H105" s="205"/>
+      <c r="C105" s="214"/>
+      <c r="D105" s="214"/>
+      <c r="E105" s="214"/>
+      <c r="F105" s="214"/>
+      <c r="G105" s="214"/>
+      <c r="H105" s="214"/>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="56" t="s">
@@ -10126,25 +10117,25 @@
       <c r="B117" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="236" t="s">
+      <c r="C117" s="218" t="s">
         <v>233</v>
       </c>
-      <c r="D117" s="236"/>
-      <c r="E117" s="237"/>
-      <c r="F117" s="237"/>
-      <c r="G117" s="237"/>
+      <c r="D117" s="218"/>
+      <c r="E117" s="219"/>
+      <c r="F117" s="219"/>
+      <c r="G117" s="219"/>
       <c r="H117" s="99"/>
     </row>
     <row r="118" spans="2:8" ht="15.6">
-      <c r="B118" s="204" t="s">
+      <c r="B118" s="213" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="205"/>
-      <c r="D118" s="205"/>
-      <c r="E118" s="205"/>
-      <c r="F118" s="205"/>
-      <c r="G118" s="205"/>
-      <c r="H118" s="205"/>
+      <c r="C118" s="214"/>
+      <c r="D118" s="214"/>
+      <c r="E118" s="214"/>
+      <c r="F118" s="214"/>
+      <c r="G118" s="214"/>
+      <c r="H118" s="214"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119" s="53" t="s">
@@ -10292,15 +10283,15 @@
       <c r="H125" s="56"/>
     </row>
     <row r="126" spans="2:8" ht="15.6">
-      <c r="B126" s="199" t="s">
+      <c r="B126" s="201" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="199"/>
-      <c r="D126" s="199"/>
-      <c r="E126" s="224"/>
-      <c r="F126" s="224"/>
-      <c r="G126" s="224"/>
-      <c r="H126" s="199"/>
+      <c r="C126" s="201"/>
+      <c r="D126" s="201"/>
+      <c r="E126" s="202"/>
+      <c r="F126" s="202"/>
+      <c r="G126" s="202"/>
+      <c r="H126" s="201"/>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" s="53" t="s">
@@ -10385,18 +10376,35 @@
       <c r="H130" s="56"/>
     </row>
     <row r="131" spans="2:8" ht="17.399999999999999">
-      <c r="B131" s="201" t="s">
+      <c r="B131" s="233" t="s">
         <v>475</v>
       </c>
-      <c r="C131" s="202"/>
-      <c r="D131" s="202"/>
-      <c r="E131" s="202"/>
-      <c r="F131" s="202"/>
-      <c r="G131" s="202"/>
+      <c r="C131" s="234"/>
+      <c r="D131" s="234"/>
+      <c r="E131" s="234"/>
+      <c r="F131" s="234"/>
+      <c r="G131" s="234"/>
       <c r="H131" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B68:D68"/>
     <mergeCell ref="A39:A63"/>
     <mergeCell ref="A2:A37"/>
     <mergeCell ref="B126:H126"/>
@@ -10413,23 +10421,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C69" r:id="rId1" xr:uid="{388792E0-287C-4EBB-9210-4C8C9AF46776}"/>
@@ -10443,8 +10434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FC117D-DC4D-4938-8F8A-64D67F77798F}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10464,30 +10455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.399999999999999">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
     </row>
     <row r="2" spans="1:12" ht="17.399999999999999">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="241" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="148"/>
@@ -10837,7 +10828,7 @@
       <c r="C21" s="7">
         <v>420</v>
       </c>
-      <c r="D21" s="259">
+      <c r="D21" s="184">
         <v>0.105</v>
       </c>
       <c r="E21" s="149">
@@ -10855,7 +10846,7 @@
       <c r="C22" s="7">
         <v>513</v>
       </c>
-      <c r="D22" s="259">
+      <c r="D22" s="184">
         <v>0.114</v>
       </c>
       <c r="E22" s="149">
@@ -10890,17 +10881,17 @@
       <c r="F24"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="241" t="s">
         <v>522</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
       <c r="J28" s="111" t="s">
         <v>523</v>
       </c>
@@ -11343,23 +11334,23 @@
       <c r="I45"/>
     </row>
     <row r="46" spans="1:9" ht="17.399999999999999">
-      <c r="A46" s="240" t="s">
+      <c r="A46" s="241" t="s">
         <v>575</v>
       </c>
-      <c r="B46" s="241"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="241"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="241"/>
-      <c r="I46" s="241"/>
+      <c r="B46" s="242"/>
+      <c r="C46" s="242"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="242"/>
+      <c r="F46" s="242"/>
+      <c r="G46" s="242"/>
+      <c r="H46" s="242"/>
+      <c r="I46" s="242"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="242" t="s">
+      <c r="A47" s="243" t="s">
         <v>576</v>
       </c>
-      <c r="B47" s="243"/>
+      <c r="B47" s="244"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="152" t="s">
@@ -11468,23 +11459,23 @@
       <c r="G56" s="115" t="s">
         <v>531</v>
       </c>
-      <c r="H56" s="244" t="s">
+      <c r="H56" s="245" t="s">
         <v>532</v>
       </c>
-      <c r="I56" s="245"/>
+      <c r="I56" s="246"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B57" s="53" t="s">
         <v>597</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>598</v>
       </c>
       <c r="C57" s="113">
         <v>0.3125</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E57" s="53">
         <v>150</v>
@@ -11496,29 +11487,29 @@
         <v>538</v>
       </c>
       <c r="H57" s="133" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57"/>
       <c r="K57" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="L57" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="L57" s="33" t="s">
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B58" s="53" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>603</v>
       </c>
       <c r="C58" s="113">
         <v>0.33333333333333331</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E58" s="53">
         <v>99</v>
@@ -11530,28 +11521,28 @@
         <v>538</v>
       </c>
       <c r="H58" s="133" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I58" s="7"/>
       <c r="K58" t="s">
+        <v>605</v>
+      </c>
+      <c r="L58" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B59" s="53" t="s">
         <v>606</v>
-      </c>
-      <c r="L58" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>607</v>
       </c>
       <c r="C59" s="113">
         <v>0.375</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E59" s="53">
         <v>180</v>
@@ -11563,28 +11554,28 @@
         <v>550</v>
       </c>
       <c r="H59" s="133" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I59" s="7"/>
       <c r="K59" t="s">
+        <v>609</v>
+      </c>
+      <c r="L59" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B60" s="53" t="s">
         <v>610</v>
-      </c>
-      <c r="L59" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="53" t="s">
-        <v>611</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>612</v>
       </c>
       <c r="C60" s="113">
         <v>0.41666666666666669</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E60" s="53">
         <v>50</v>
@@ -11596,28 +11587,28 @@
         <v>564</v>
       </c>
       <c r="H60" s="133" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I60" s="7"/>
       <c r="K60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L60" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="53" t="s">
-        <v>597</v>
+      <c r="A61" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C61" s="113">
         <v>0.54166666666666663</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E61" s="53">
         <v>120</v>
@@ -11629,28 +11620,28 @@
         <v>553</v>
       </c>
       <c r="H61" s="133" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I61" s="7"/>
       <c r="K61" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L61" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="53" t="s">
-        <v>620</v>
+      <c r="A62" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C62" s="113">
         <v>0.58333333333333337</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E62" s="53">
         <v>99</v>
@@ -11662,28 +11653,28 @@
         <v>553</v>
       </c>
       <c r="H62" s="133" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I62" s="7"/>
       <c r="K62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L62" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="53" t="s">
-        <v>597</v>
+      <c r="A63" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C63" s="113">
         <v>0.66666666666666663</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E63" s="53">
         <v>160</v>
@@ -11695,28 +11686,28 @@
         <v>553</v>
       </c>
       <c r="H63" s="133" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I63" s="7"/>
       <c r="K63" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="53" t="s">
-        <v>611</v>
+      <c r="A64" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C64" s="113">
         <v>0.75</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E64" s="53">
         <v>80</v>
@@ -11728,72 +11719,72 @@
         <v>553</v>
       </c>
       <c r="H64" s="133" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I64" s="7"/>
       <c r="K64" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="K65" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.399999999999999">
+      <c r="A66" s="241" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="17.399999999999999">
-      <c r="A66" s="240" t="s">
-        <v>632</v>
-      </c>
-      <c r="B66" s="241"/>
-      <c r="C66" s="241"/>
-      <c r="D66" s="241"/>
-      <c r="E66" s="241"/>
-      <c r="F66" s="241"/>
-      <c r="G66" s="241"/>
-      <c r="H66" s="241"/>
-      <c r="I66" s="241"/>
+      <c r="B66" s="242"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="242"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="242"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="246" t="s">
-        <v>633</v>
-      </c>
-      <c r="B67" s="247"/>
-      <c r="C67" s="248"/>
+      <c r="A67" s="247" t="s">
+        <v>630</v>
+      </c>
+      <c r="B67" s="248"/>
+      <c r="C67" s="249"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="102" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C68" s="118"/>
       <c r="D68" s="53" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="102" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C69" s="118"/>
       <c r="D69" s="135" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E69" s="136" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F69" s="118"/>
       <c r="G69" s="160" t="s">
@@ -11805,38 +11796,38 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="102" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C70" s="118"/>
       <c r="D70" s="53" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F70" s="103"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="115" t="s">
+        <v>643</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>644</v>
+      </c>
+      <c r="C73" s="115" t="s">
+        <v>645</v>
+      </c>
+      <c r="D73" s="115" t="s">
         <v>646</v>
-      </c>
-      <c r="B73" s="115" t="s">
-        <v>647</v>
-      </c>
-      <c r="C73" s="115" t="s">
-        <v>648</v>
-      </c>
-      <c r="D73" s="115" t="s">
-        <v>649</v>
       </c>
       <c r="E73" s="115" t="s">
         <v>531</v>
       </c>
       <c r="F73" s="115" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G73" s="115" t="s">
         <v>532</v>
@@ -11844,10 +11835,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C74" s="7">
         <v>123</v>
@@ -11856,22 +11847,22 @@
         <v>107</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F74" s="7">
         <v>16</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I74"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C75" s="7">
         <v>82</v>
@@ -11880,21 +11871,21 @@
         <v>91</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F75" s="7">
         <v>0</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C76" s="7">
         <v>61</v>
@@ -11903,21 +11894,21 @@
         <v>51</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F76" s="7">
         <v>61</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C77" s="7">
         <v>21</v>
@@ -11926,21 +11917,21 @@
         <v>26</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F77" s="7">
         <v>0</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C78" s="7">
         <v>152</v>
@@ -11949,21 +11940,21 @@
         <v>141</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F78" s="7">
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C79" s="7">
         <v>41</v>
@@ -11972,21 +11963,21 @@
         <v>46</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F79" s="7">
         <v>41</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C80" s="7">
         <v>0</v>
@@ -11995,21 +11986,21 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F80" s="7">
         <v>0</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C81" s="7">
         <v>26</v>
@@ -12018,21 +12009,21 @@
         <v>21</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F81" s="7">
         <v>5</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C82" s="7">
         <v>35</v>
@@ -12041,21 +12032,21 @@
         <v>32</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F82" s="7">
         <v>3</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C83" s="7">
         <v>28</v>
@@ -12064,42 +12055,42 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F83" s="7">
         <v>0</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17.399999999999999">
-      <c r="A85" s="240" t="s">
-        <v>671</v>
-      </c>
-      <c r="B85" s="241"/>
-      <c r="C85" s="241"/>
-      <c r="D85" s="241"/>
-      <c r="E85" s="241"/>
-      <c r="F85" s="241"/>
-      <c r="G85" s="241"/>
-      <c r="H85" s="241"/>
-      <c r="I85" s="241"/>
+      <c r="A85" s="241" t="s">
+        <v>668</v>
+      </c>
+      <c r="B85" s="242"/>
+      <c r="C85" s="242"/>
+      <c r="D85" s="242"/>
+      <c r="E85" s="242"/>
+      <c r="F85" s="242"/>
+      <c r="G85" s="242"/>
+      <c r="H85" s="242"/>
+      <c r="I85" s="242"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="115" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B86" s="115" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>648</v>
-      </c>
-      <c r="D86" s="249" t="s">
-        <v>672</v>
-      </c>
-      <c r="E86" s="250"/>
+        <v>645</v>
+      </c>
+      <c r="D86" s="250" t="s">
+        <v>669</v>
+      </c>
+      <c r="E86" s="251"/>
       <c r="F86" s="115" t="s">
         <v>531</v>
       </c>
@@ -12111,10 +12102,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C87" s="7">
         <v>347</v>
@@ -12126,20 +12117,20 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F87" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C88" s="7">
         <v>289</v>
@@ -12151,20 +12142,20 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="F88" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C89" s="7">
         <v>198</v>
@@ -12176,20 +12167,20 @@
         <v>0.75</v>
       </c>
       <c r="F89" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C90" s="7">
         <v>412</v>
@@ -12201,20 +12192,20 @@
         <v>0.875</v>
       </c>
       <c r="F90" s="109" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C91" s="7">
         <v>156</v>
@@ -12226,20 +12217,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F91" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C92" s="7">
         <v>112</v>
@@ -12251,20 +12242,20 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F92" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C93" s="7">
         <v>167</v>
@@ -12276,20 +12267,20 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F93" s="109" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C94" s="7">
         <v>94</v>
@@ -12301,20 +12292,20 @@
         <v>0.75</v>
       </c>
       <c r="F94" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C95" s="7">
         <v>234</v>
@@ -12326,20 +12317,20 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F95" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C96" s="7">
         <v>143</v>
@@ -12351,20 +12342,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F96" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
     </row>
     <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C97" s="7">
         <v>128</v>
@@ -12376,20 +12367,20 @@
         <v>0.75</v>
       </c>
       <c r="F97" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
     </row>
     <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C98" s="7">
         <v>189</v>
@@ -12401,20 +12392,20 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F98" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
     </row>
     <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C99" s="7">
         <v>312</v>
@@ -12426,20 +12417,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F99" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
     </row>
     <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C100" s="7">
         <v>176</v>
@@ -12451,20 +12442,20 @@
         <v>0.875</v>
       </c>
       <c r="F100" s="109" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
     </row>
     <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C101" s="7">
         <v>135</v>
@@ -12476,53 +12467,53 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F101" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
     </row>
     <row r="104" spans="1:9" ht="17.399999999999999" hidden="1">
-      <c r="A104" s="240" t="s">
-        <v>705</v>
-      </c>
-      <c r="B104" s="241"/>
-      <c r="C104" s="241"/>
-      <c r="D104" s="241"/>
-      <c r="E104" s="241"/>
-      <c r="F104" s="241"/>
-      <c r="G104" s="241"/>
-      <c r="H104" s="241"/>
-      <c r="I104" s="241"/>
+      <c r="A104" s="241" t="s">
+        <v>702</v>
+      </c>
+      <c r="B104" s="242"/>
+      <c r="C104" s="242"/>
+      <c r="D104" s="242"/>
+      <c r="E104" s="242"/>
+      <c r="F104" s="242"/>
+      <c r="G104" s="242"/>
+      <c r="H104" s="242"/>
+      <c r="I104" s="242"/>
     </row>
     <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="116" t="s">
+        <v>703</v>
+      </c>
+      <c r="B105" s="116" t="s">
+        <v>704</v>
+      </c>
+      <c r="C105" s="116" t="s">
+        <v>705</v>
+      </c>
+      <c r="D105" s="116" t="s">
         <v>706</v>
       </c>
-      <c r="B105" s="116" t="s">
+      <c r="E105" s="116" t="s">
         <v>707</v>
       </c>
-      <c r="C105" s="116" t="s">
+      <c r="F105" s="116" t="s">
         <v>708</v>
-      </c>
-      <c r="D105" s="116" t="s">
-        <v>709</v>
-      </c>
-      <c r="E105" s="116" t="s">
-        <v>710</v>
-      </c>
-      <c r="F105" s="116" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="117" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C106" s="53">
         <v>6521</v>
@@ -12539,10 +12530,10 @@
     </row>
     <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="117" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C107" s="53">
         <v>4583</v>
@@ -12559,10 +12550,10 @@
     </row>
     <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="117" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C108" s="53">
         <v>4679</v>
@@ -12579,10 +12570,10 @@
     </row>
     <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="117" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B109" s="53" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C109" s="53">
         <v>4732</v>
@@ -12599,10 +12590,10 @@
     </row>
     <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="117" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B110" s="53" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C110" s="53">
         <v>6714</v>
@@ -12619,10 +12610,10 @@
     </row>
     <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="117" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C111" s="53">
         <v>8743</v>
@@ -12639,10 +12630,10 @@
     </row>
     <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="117" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C112" s="53">
         <v>8921</v>
@@ -12659,10 +12650,10 @@
     </row>
     <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="117" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C113" s="53">
         <v>6489</v>
@@ -12679,10 +12670,10 @@
     </row>
     <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="117" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C114" s="53">
         <v>4617</v>
@@ -12699,10 +12690,10 @@
     </row>
     <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="117" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C115" s="53">
         <v>4698</v>
@@ -12719,10 +12710,10 @@
     </row>
     <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="117" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C116" s="53">
         <v>4756</v>
@@ -12739,10 +12730,10 @@
     </row>
     <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="117" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B117" s="53" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C117" s="53">
         <v>6792</v>
@@ -12759,10 +12750,10 @@
     </row>
     <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="53" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C118" s="53">
         <v>8812</v>
@@ -12779,10 +12770,10 @@
     </row>
     <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="53" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C119" s="53">
         <v>8976</v>
@@ -12799,10 +12790,10 @@
     </row>
     <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="53" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C120" s="53">
         <v>6543</v>
@@ -12819,10 +12810,10 @@
     </row>
     <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="53" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C121" s="53">
         <v>4639</v>
@@ -12839,10 +12830,10 @@
     </row>
     <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="53" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C122" s="53">
         <v>4712</v>
@@ -12859,10 +12850,10 @@
     </row>
     <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="53" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C123" s="53">
         <v>4778</v>
@@ -12879,10 +12870,10 @@
     </row>
     <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="53" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C124" s="53">
         <v>6839</v>
@@ -12899,10 +12890,10 @@
     </row>
     <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="53" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C125" s="53">
         <v>8874</v>
@@ -12919,10 +12910,10 @@
     </row>
     <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="53" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C126" s="53">
         <v>9123</v>
@@ -12938,27 +12929,27 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A129" s="240" t="s">
-        <v>741</v>
-      </c>
-      <c r="B129" s="241"/>
-      <c r="C129" s="241"/>
-      <c r="D129" s="241"/>
-      <c r="E129" s="241"/>
-      <c r="F129" s="241"/>
-      <c r="G129" s="241"/>
-      <c r="H129" s="241"/>
-      <c r="I129" s="241"/>
+      <c r="A129" s="241" t="s">
+        <v>738</v>
+      </c>
+      <c r="B129" s="242"/>
+      <c r="C129" s="242"/>
+      <c r="D129" s="242"/>
+      <c r="E129" s="242"/>
+      <c r="F129" s="242"/>
+      <c r="G129" s="242"/>
+      <c r="H129" s="242"/>
+      <c r="I129" s="242"/>
     </row>
     <row r="130" spans="1:9">
       <c r="B130" s="144" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C130" s="116" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D130" s="116" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -12966,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D131" s="7">
         <v>122.14400000000001</v>
@@ -12977,7 +12968,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D132" s="7">
         <v>91.608000000000004</v>
@@ -12988,7 +12979,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D133" s="7">
         <v>61.072000000000003</v>
@@ -12999,7 +12990,7 @@
         <v>4</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D134" s="7">
         <v>45.804000000000002</v>
@@ -13010,7 +13001,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D135" s="7">
         <v>30.536000000000001</v>
@@ -13021,7 +13012,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D136" s="7">
         <v>30.536000000000001</v>
@@ -13032,7 +13023,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D137" s="7">
         <v>22.902000000000001</v>
@@ -13043,7 +13034,7 @@
         <v>8</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D138" s="7">
         <v>22.902000000000001</v>
@@ -13054,7 +13045,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="134" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D139" s="134">
         <v>15.268000000000001</v>
@@ -13065,34 +13056,34 @@
         <v>10</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D140" s="7">
         <v>15.268000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="17.399999999999999">
-      <c r="A141" s="240" t="s">
-        <v>747</v>
-      </c>
-      <c r="B141" s="241"/>
-      <c r="C141" s="241"/>
-      <c r="D141" s="241"/>
-      <c r="E141" s="241"/>
-      <c r="F141" s="241"/>
-      <c r="G141" s="241"/>
-      <c r="H141" s="241"/>
-      <c r="I141" s="241"/>
+      <c r="A141" s="241" t="s">
+        <v>744</v>
+      </c>
+      <c r="B141" s="242"/>
+      <c r="C141" s="242"/>
+      <c r="D141" s="242"/>
+      <c r="E141" s="242"/>
+      <c r="F141" s="242"/>
+      <c r="G141" s="242"/>
+      <c r="H141" s="242"/>
+      <c r="I141" s="242"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="115" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B142" s="115" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C142" s="115" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D142" s="115" t="s">
         <v>5</v>
@@ -13101,10 +13092,10 @@
         <v>531</v>
       </c>
       <c r="F142" s="115" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G142" s="115" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H142" s="115" t="s">
         <v>532</v>
@@ -13115,25 +13106,25 @@
         <v>45666</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="G143" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="E143" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>758</v>
-      </c>
       <c r="H143" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -13141,22 +13132,22 @@
         <v>45666.410185185188</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="G144" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>763</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>559</v>
@@ -13167,25 +13158,25 @@
         <v>45786.338194444441</v>
       </c>
       <c r="B145" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F145" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="G145" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="H145" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -13193,25 +13184,25 @@
         <v>45847.402777777781</v>
       </c>
       <c r="B146" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>756</v>
-      </c>
       <c r="F146" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -13219,155 +13210,155 @@
         <v>45939.507407407407</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>778</v>
-      </c>
       <c r="H148" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F149" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="G149" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>783</v>
-      </c>
       <c r="H149" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>787</v>
-      </c>
       <c r="H150" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F151" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="C151" s="7" t="s">
+      <c r="G151" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>792</v>
-      </c>
       <c r="H151" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="G152" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>797</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -13413,107 +13404,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17.399999999999999">
-      <c r="A2" s="240" t="s">
-        <v>798</v>
-      </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
+      <c r="A2" s="241" t="s">
+        <v>795</v>
+      </c>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="53" t="s">
         <v>511</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>798</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>799</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="H3" s="53" t="s">
         <v>800</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>801</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>802</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>804</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>805</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>806</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>804</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>807</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="53" t="s">
+        <v>806</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>807</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>808</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>809</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>810</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="H5" s="53" t="s">
         <v>811</v>
       </c>
-      <c r="F5" s="53" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="254" t="s">
         <v>812</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="F6" s="254" t="s">
         <v>813</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="253" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="253"/>
-      <c r="D6" s="253"/>
-      <c r="F6" s="253" t="s">
-        <v>816</v>
-      </c>
-      <c r="G6" s="253"/>
-      <c r="H6" s="253"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="115" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D7" s="115" t="s">
         <v>520</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="115" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G7" s="115" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H7" s="115" t="s">
         <v>520</v>
@@ -13522,7 +13513,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="53" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C8" s="53">
         <v>241</v>
@@ -13531,7 +13522,7 @@
         <v>0.11</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G8" s="53">
         <v>275</v>
@@ -13542,7 +13533,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="53" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C9" s="53">
         <v>1.0940000000000001</v>
@@ -13551,7 +13542,7 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G9" s="53">
         <v>438</v>
@@ -13562,7 +13553,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="53" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C10" s="53">
         <v>328</v>
@@ -13571,7 +13562,7 @@
         <v>0.15</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G10" s="53">
         <v>219</v>
@@ -13642,7 +13633,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="177" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C14" s="177">
         <v>2.1880000000000002</v>
@@ -13651,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="177" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G14" s="177">
         <v>1.0940000000000001</v>
@@ -13661,52 +13652,52 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999">
-      <c r="A16" s="240" t="s">
-        <v>825</v>
-      </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="241"/>
+      <c r="A16" s="241" t="s">
+        <v>822</v>
+      </c>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="251" t="s">
-        <v>826</v>
-      </c>
-      <c r="C17" s="251"/>
-      <c r="F17" s="252" t="s">
-        <v>827</v>
-      </c>
-      <c r="G17" s="252"/>
+      <c r="B17" s="252" t="s">
+        <v>823</v>
+      </c>
+      <c r="C17" s="252"/>
+      <c r="F17" s="253" t="s">
+        <v>824</v>
+      </c>
+      <c r="G17" s="253"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="53" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G18" s="179" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="53" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C19" s="180">
         <v>1.06</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G19" s="180">
         <v>0.9</v>
@@ -13714,76 +13705,76 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="181" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C20" s="181" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="53" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="53" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C22" s="53" t="s">
+        <v>834</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>835</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>806</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>836</v>
+      </c>
+      <c r="K22" s="93" t="s">
         <v>837</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>838</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>809</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>839</v>
-      </c>
-      <c r="K22" s="93" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="93" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="115" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D24" s="115" t="s">
         <v>520</v>
       </c>
       <c r="E24" s="150"/>
       <c r="F24" s="115" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G24" s="115" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H24" s="115" t="s">
         <v>520</v>
@@ -13792,7 +13783,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="53" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C25" s="53">
         <v>516</v>
@@ -13801,7 +13792,7 @@
         <v>0.3</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G25" s="53">
         <v>60</v>
@@ -13812,7 +13803,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="53" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C26" s="53">
         <v>344</v>
@@ -13832,7 +13823,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="53" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C27" s="53">
         <v>172</v>
@@ -13852,7 +13843,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="53" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C28" s="53">
         <v>258</v>
@@ -13861,7 +13852,7 @@
         <v>0.15</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G28" s="53">
         <v>9</v>
@@ -13881,7 +13872,7 @@
         <v>0.05</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G29" s="53">
         <v>30</v>
@@ -13892,7 +13883,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="53" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C30" s="53">
         <v>34</v>
@@ -13901,7 +13892,7 @@
         <v>0.02</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G30" s="53">
         <v>12</v>
@@ -13932,7 +13923,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="177" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C32" s="177">
         <v>1720</v>
@@ -13952,7 +13943,7 @@
     </row>
     <row r="33" spans="2:12">
       <c r="F33" s="177" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G33" s="177">
         <v>150</v>
@@ -13962,21 +13953,21 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="252" t="s">
-        <v>858</v>
-      </c>
-      <c r="C35" s="252"/>
-      <c r="F35" s="252" t="s">
-        <v>859</v>
-      </c>
-      <c r="G35" s="252"/>
+      <c r="B35" s="253" t="s">
+        <v>855</v>
+      </c>
+      <c r="C35" s="253"/>
+      <c r="F35" s="253" t="s">
+        <v>856</v>
+      </c>
+      <c r="G35" s="253"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="115" t="s">
         <v>483</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D36" s="150"/>
       <c r="E36" s="150"/>
@@ -13984,7 +13975,7 @@
         <v>483</v>
       </c>
       <c r="G36" s="115" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="H36" s="150"/>
       <c r="I36" s="150"/>
@@ -13994,13 +13985,13 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="53" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C37" s="53">
         <v>171</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G37" s="53">
         <v>12</v>
@@ -14010,13 +14001,13 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="53" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C38" s="53">
         <v>165</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G38" s="53">
         <v>11</v>
@@ -14025,13 +14016,13 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="53" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C39" s="53">
         <v>182</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G39" s="53">
         <v>10</v>
@@ -14040,13 +14031,13 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="53" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C40" s="53">
         <v>176</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G40" s="53">
         <v>10</v>
@@ -14055,13 +14046,13 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="53" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C41" s="53">
         <v>189</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G41" s="53">
         <v>11</v>
@@ -14070,13 +14061,13 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="53" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C42" s="53">
         <v>203</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G42" s="53">
         <v>13</v>
@@ -14115,7 +14106,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="177" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C45" s="177">
         <v>130</v>
@@ -14123,7 +14114,7 @@
       <c r="D45" s="150"/>
       <c r="E45" s="150"/>
       <c r="F45" s="177" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G45" s="177">
         <v>28</v>
@@ -14166,77 +14157,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="254" t="s">
-        <v>869</v>
-      </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="I2" s="255" t="s">
-        <v>870</v>
-      </c>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
+      <c r="A2" s="255" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="I2" s="256" t="s">
+        <v>867</v>
+      </c>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="137" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="I3" s="33" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B4" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>876</v>
-      </c>
       <c r="I4" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J4" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K4" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L4" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J4" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K4" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L4" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D5" s="7">
         <v>1985</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>880</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L5" s="7">
         <v>1990</v>
@@ -14244,25 +14235,25 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D6" s="7">
         <v>1990</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L6" s="7">
         <v>1995</v>
@@ -14270,25 +14261,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D7" s="7">
         <v>1987</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L7" s="7">
         <v>1985</v>
@@ -14296,25 +14287,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D8" s="7">
         <v>1995</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L8" s="7">
         <v>1992</v>
@@ -14322,25 +14313,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D9" s="7">
         <v>1992</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L9" s="7">
         <v>1998</v>
@@ -14348,28 +14339,28 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C10" s="146" t="s">
-        <v>891</v>
-      </c>
-      <c r="D10" s="146" t="s">
-        <v>891</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>893</v>
-      </c>
       <c r="K10" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L10" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -14378,7 +14369,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="I12" s="137" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -14390,16 +14381,16 @@
       <c r="C13" s="137"/>
       <c r="D13" s="137"/>
       <c r="I13" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J13" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K13" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L13" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J13" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K13" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L13" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -14408,13 +14399,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L14" s="7">
         <v>1988</v>
@@ -14426,13 +14417,13 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L15" s="7">
         <v>1991</v>
@@ -14444,13 +14435,13 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L16" s="7">
         <v>1990</v>
@@ -14462,13 +14453,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L17" s="7">
         <v>1993</v>
@@ -14480,13 +14471,13 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L18" s="7">
         <v>1987</v>
@@ -14498,27 +14489,27 @@
       <c r="C19" s="146"/>
       <c r="D19" s="146"/>
       <c r="I19" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K19" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L19" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="137" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="I21" s="137" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -14526,51 +14517,51 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D22" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B22" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>876</v>
-      </c>
       <c r="I22" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J22" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K22" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L22" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J22" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K22" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L22" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D23" s="7">
         <v>1990</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L23" s="7">
         <v>1990</v>
@@ -14578,25 +14569,25 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D24" s="7">
         <v>1985</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L24" s="7">
         <v>1985</v>
@@ -14604,25 +14595,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D25" s="7">
         <v>1998</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L25" s="7">
         <v>1998</v>
@@ -14630,25 +14621,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D26" s="7">
         <v>1993</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L26" s="7">
         <v>1993</v>
@@ -14656,25 +14647,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D27" s="7">
         <v>1987</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L27" s="7">
         <v>1987</v>
@@ -14682,28 +14673,28 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="C28" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="D28" s="146" t="s">
+        <v>888</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C28" s="146" t="s">
-        <v>891</v>
-      </c>
-      <c r="D28" s="146" t="s">
-        <v>891</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>893</v>
-      </c>
       <c r="K28" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L28" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -14712,7 +14703,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="I30" s="137" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -14724,16 +14715,16 @@
       <c r="C31" s="137"/>
       <c r="D31" s="137"/>
       <c r="I31" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J31" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K31" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L31" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J31" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K31" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L31" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -14742,13 +14733,13 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L32" s="7">
         <v>1995</v>
@@ -14760,13 +14751,13 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L33" s="7">
         <v>2000</v>
@@ -14778,13 +14769,13 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L34" s="7">
         <v>1992</v>
@@ -14796,13 +14787,13 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L35" s="7">
         <v>1997</v>
@@ -14814,13 +14805,13 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L36" s="7">
         <v>1994</v>
@@ -14832,27 +14823,27 @@
       <c r="C37" s="146"/>
       <c r="D37" s="146"/>
       <c r="I37" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L37" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="137" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="I39" s="137" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -14860,51 +14851,51 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C40" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D40" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B40" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D40" s="137" t="s">
-        <v>876</v>
-      </c>
       <c r="I40" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J40" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K40" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L40" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J40" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K40" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L40" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D41" s="7">
         <v>1988</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L41" s="7">
         <v>1990</v>
@@ -14912,25 +14903,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D42" s="7">
         <v>1991</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L42" s="7">
         <v>1995</v>
@@ -14938,25 +14929,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D43" s="7">
         <v>1985</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L43" s="7">
         <v>1988</v>
@@ -14964,25 +14955,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D44" s="7">
         <v>1990</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L44" s="7">
         <v>1992</v>
@@ -14990,25 +14981,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D45" s="7">
         <v>1987</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L45" s="7">
         <v>1994</v>
@@ -15016,39 +15007,39 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C46" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D46" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="K46" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L46" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="I48" s="137" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -15056,51 +15047,51 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B49" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C49" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D49" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B49" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="C49" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D49" s="137" t="s">
-        <v>876</v>
-      </c>
       <c r="I49" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J49" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K49" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L49" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J49" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K49" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L49" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D50" s="7">
         <v>1992</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L50" s="7">
         <v>1987</v>
@@ -15108,25 +15099,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D51" s="7">
         <v>1989</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L51" s="7">
         <v>1992</v>
@@ -15134,25 +15125,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D52" s="7">
         <v>1996</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L52" s="7">
         <v>1985</v>
@@ -15160,25 +15151,25 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D53" s="7">
         <v>1993</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L53" s="7">
         <v>1990</v>
@@ -15186,25 +15177,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D54" s="7">
         <v>1986</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L54" s="7">
         <v>1987</v>
@@ -15212,39 +15203,39 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="7" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C55" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D55" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="K55" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L55" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6">
       <c r="A57" s="147" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="I57" s="137" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -15252,51 +15243,51 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B58" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C58" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D58" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B58" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="C58" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D58" s="137" t="s">
-        <v>876</v>
-      </c>
       <c r="I58" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J58" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K58" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L58" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J58" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K58" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L58" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B59" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C59" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D59" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L59" s="7">
         <v>1985</v>
@@ -15308,13 +15299,13 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L60" s="7">
         <v>1990</v>
@@ -15322,19 +15313,19 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="137" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L61" s="7">
         <v>1993</v>
@@ -15342,25 +15333,25 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B62" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C62" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D62" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B62" s="137" t="s">
+      <c r="I62" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C62" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D62" s="137" t="s">
-        <v>876</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>877</v>
-      </c>
       <c r="J62" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L62" s="7">
         <v>1987</v>
@@ -15368,25 +15359,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D63" s="7">
         <v>1990</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L63" s="7">
         <v>1996</v>
@@ -15394,39 +15385,39 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D64" s="7">
         <v>1995</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K64" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L64" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D65" s="7">
         <v>1988</v>
@@ -15434,19 +15425,19 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D66" s="7">
         <v>1992</v>
       </c>
       <c r="I66" s="137" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -15454,51 +15445,51 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D67" s="7">
         <v>1994</v>
       </c>
       <c r="I67" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="J67" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="K67" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="L67" s="137" t="s">
         <v>873</v>
-      </c>
-      <c r="J67" s="137" t="s">
-        <v>874</v>
-      </c>
-      <c r="K67" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="L67" s="137" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C68" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D68" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L68" s="7">
         <v>1989</v>
@@ -15506,13 +15497,13 @@
     </row>
     <row r="69" spans="1:12">
       <c r="I69" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L69" s="7">
         <v>1994</v>
@@ -15520,16 +15511,16 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="33" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L70" s="7">
         <v>1991</v>
@@ -15537,25 +15528,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="137" t="s">
+        <v>870</v>
+      </c>
+      <c r="B71" s="137" t="s">
+        <v>871</v>
+      </c>
+      <c r="C71" s="137" t="s">
+        <v>872</v>
+      </c>
+      <c r="D71" s="137" t="s">
         <v>873</v>
       </c>
-      <c r="B71" s="137" t="s">
+      <c r="I71" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C71" s="137" t="s">
-        <v>875</v>
-      </c>
-      <c r="D71" s="137" t="s">
-        <v>876</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>877</v>
-      </c>
       <c r="J71" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="L71" s="7">
         <v>1986</v>
@@ -15563,25 +15554,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D72" s="7">
         <v>1985</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L72" s="7">
         <v>1997</v>
@@ -15589,39 +15580,39 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D73" s="7">
         <v>1990</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K73" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L73" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D74" s="7">
         <v>1993</v>
@@ -15629,13 +15620,13 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D75" s="7">
         <v>1987</v>
@@ -15643,13 +15634,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D76" s="7">
         <v>1996</v>
@@ -15657,16 +15648,16 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C77" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D77" s="146" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -15747,25 +15738,25 @@
   <sheetData>
     <row r="3" spans="1:8">
       <c r="A3" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>646</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>649</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>531</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>532</v>
@@ -15776,10 +15767,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D4">
         <v>123</v>
@@ -15788,13 +15779,13 @@
         <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G4" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H4" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -15802,10 +15793,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D5">
         <v>82</v>
@@ -15814,13 +15805,13 @@
         <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -15828,10 +15819,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D6">
         <v>61</v>
@@ -15840,13 +15831,13 @@
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="H6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -15854,10 +15845,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D7">
         <v>21</v>
@@ -15866,13 +15857,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H7" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -15880,10 +15871,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D8">
         <v>152</v>
@@ -15892,13 +15883,13 @@
         <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="H8" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -15906,10 +15897,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -15918,13 +15909,13 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="H9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15932,10 +15923,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -15944,13 +15935,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G10" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15958,10 +15949,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D11">
         <v>26</v>
@@ -15970,13 +15961,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G11" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="H11" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15984,10 +15975,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C12" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -15996,13 +15987,13 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G12" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H12" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -16010,10 +16001,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C13" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D13">
         <v>28</v>
@@ -16022,13 +16013,13 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H13" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -16036,10 +16027,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D14">
         <v>47</v>
@@ -16048,13 +16039,13 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H14" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -16062,10 +16053,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D15">
         <v>68</v>
@@ -16074,13 +16065,13 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G15" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -16088,10 +16079,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C16" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D16">
         <v>89</v>
@@ -16100,13 +16091,13 @@
         <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G16" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H16" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -16114,10 +16105,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C17" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D17">
         <v>34</v>
@@ -16126,13 +16117,13 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G17" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="H17" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -16140,10 +16131,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C18" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D18">
         <v>52</v>
@@ -16152,13 +16143,13 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G18" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H18" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -16166,10 +16157,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C19" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -16178,13 +16169,13 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G19" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H19" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -16192,10 +16183,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D20">
         <v>24</v>
@@ -16204,13 +16195,13 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="H20" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -16218,10 +16209,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C21" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -16230,13 +16221,13 @@
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G21" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H21" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -16244,10 +16235,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D22">
         <v>56</v>
@@ -16256,13 +16247,13 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G22" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="H22" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -16270,10 +16261,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C23" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D23">
         <v>73</v>
@@ -16282,13 +16273,13 @@
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G23" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H23" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -16296,10 +16287,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C24" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D24">
         <v>64</v>
@@ -16308,13 +16299,13 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G24" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H24" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -16322,10 +16313,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C25" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D25">
         <v>137</v>
@@ -16334,13 +16325,13 @@
         <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G25" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H25" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -16348,10 +16339,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C26" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D26">
         <v>98</v>
@@ -16360,13 +16351,13 @@
         <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G26" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H26" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -16374,10 +16365,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C27" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D27">
         <v>45</v>
@@ -16386,13 +16377,13 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G27" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H27" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -16400,10 +16391,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C28" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D28">
         <v>81</v>
@@ -16412,13 +16403,13 @@
         <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G28" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="H28" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -16426,10 +16417,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C29" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D29">
         <v>39</v>
@@ -16438,13 +16429,13 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G29" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="H29" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -16452,10 +16443,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -16464,13 +16455,13 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G30" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="H30" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -16478,10 +16469,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D31">
         <v>53</v>
@@ -16490,13 +16481,13 @@
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G31" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="H31" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -16504,10 +16495,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D32">
         <v>67</v>
@@ -16516,13 +16507,13 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G32" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H32" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -16530,10 +16521,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C33" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D33">
         <v>22</v>
@@ -16542,13 +16533,13 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G33" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H33" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -16556,10 +16547,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C34" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D34">
         <v>48</v>
@@ -16568,13 +16559,13 @@
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G34" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="H34" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -16582,10 +16573,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C35" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -16594,13 +16585,13 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G35" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="H35" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -16608,10 +16599,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C36" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -16620,13 +16611,13 @@
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G36" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H36" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -16634,10 +16625,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C37" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D37">
         <v>18</v>
@@ -16646,13 +16637,13 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G37" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H37" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -16660,10 +16651,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C38" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D38">
         <v>26</v>
@@ -16672,13 +16663,13 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G38" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H38" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -16686,10 +16677,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C39" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D39">
         <v>55</v>
@@ -16698,13 +16689,13 @@
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G39" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="H39" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -16712,10 +16703,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C40" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D40">
         <v>33</v>
@@ -16724,13 +16715,13 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G40" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H40" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -16738,10 +16729,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C41" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D41">
         <v>42</v>
@@ -16750,13 +16741,13 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G41" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="H41" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -16764,10 +16755,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C42" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D42">
         <v>15</v>
@@ -16776,13 +16767,13 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G42" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="H42" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -16790,10 +16781,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C43" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D43">
         <v>71</v>
@@ -16802,13 +16793,13 @@
         <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G43" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="H43" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -16816,10 +16807,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C44" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D44">
         <v>38</v>
@@ -16828,13 +16819,13 @@
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G44" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="H44" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -16842,10 +16833,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C45" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D45">
         <v>59</v>
@@ -16854,13 +16845,13 @@
         <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G45" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="H45" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -16868,10 +16859,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C46" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D46">
         <v>44</v>
@@ -16880,13 +16871,13 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G46" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="H46" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -16894,10 +16885,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C47" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D47">
         <v>23</v>
@@ -16906,13 +16897,13 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G47" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H47" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -16920,10 +16911,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C48" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D48">
         <v>51</v>
@@ -16932,13 +16923,13 @@
         <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G48" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="H48" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -16946,10 +16937,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C49" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -16958,13 +16949,13 @@
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G49" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H49" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -16972,10 +16963,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C50" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D50">
         <v>32</v>
@@ -16984,13 +16975,13 @@
         <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G50" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="H50" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -16998,10 +16989,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C51" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D51">
         <v>19</v>
@@ -17010,13 +17001,13 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G51" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H51" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -17024,10 +17015,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C52" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D52">
         <v>27</v>
@@ -17036,13 +17027,13 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G52" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="H52" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -17050,10 +17041,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C53" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D53">
         <v>56</v>
@@ -17062,13 +17053,13 @@
         <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G53" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="H53" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -17076,10 +17067,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C54" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D54">
         <v>34</v>
@@ -17088,13 +17079,13 @@
         <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G54" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="H54" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -17102,10 +17093,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C55" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D55">
         <v>43</v>
@@ -17114,13 +17105,13 @@
         <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G55" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H55" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -17128,10 +17119,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C56" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D56">
         <v>16</v>
@@ -17140,13 +17131,13 @@
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G56" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H56" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -17154,10 +17145,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C57" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D57">
         <v>72</v>
@@ -17166,13 +17157,13 @@
         <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G57" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H57" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -17180,10 +17171,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C58" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D58">
         <v>39</v>
@@ -17192,13 +17183,13 @@
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G58" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H58" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -17206,10 +17197,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C59" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -17218,13 +17209,13 @@
         <v>56</v>
       </c>
       <c r="F59" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G59" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H59" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -17232,10 +17223,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C60" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D60">
         <v>45</v>
@@ -17244,13 +17235,13 @@
         <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G60" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="H60" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -17258,10 +17249,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C61" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -17270,13 +17261,13 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G61" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="H61" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -17284,10 +17275,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C62" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D62">
         <v>52</v>
@@ -17296,13 +17287,13 @@
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G62" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H62" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -17310,10 +17301,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C63" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D63">
         <v>17</v>
@@ -17322,13 +17313,13 @@
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G63" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H63" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -17336,10 +17327,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C64" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D64">
         <v>33</v>
@@ -17348,13 +17339,13 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G64" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H64" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -17362,10 +17353,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C65" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D65">
         <v>20</v>
@@ -17374,13 +17365,13 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G65" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H65" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -17388,10 +17379,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C66" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D66">
         <v>28</v>
@@ -17400,13 +17391,13 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G66" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H66" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -17414,10 +17405,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C67" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D67">
         <v>57</v>
@@ -17426,13 +17417,13 @@
         <v>54</v>
       </c>
       <c r="F67" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G67" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H67" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -17440,10 +17431,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C68" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D68">
         <v>35</v>
@@ -17452,13 +17443,13 @@
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G68" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H68" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -17466,10 +17457,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C69" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D69">
         <v>44</v>
@@ -17478,13 +17469,13 @@
         <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G69" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H69" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -17492,10 +17483,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C70" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D70">
         <v>17</v>
@@ -17504,13 +17495,13 @@
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G70" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H70" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -17518,10 +17509,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C71" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D71">
         <v>73</v>
@@ -17530,13 +17521,13 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G71" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H71" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -17544,10 +17535,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C72" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D72">
         <v>40</v>
@@ -17556,13 +17547,13 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G72" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H72" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -17570,10 +17561,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C73" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D73">
         <v>61</v>
@@ -17582,13 +17573,13 @@
         <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G73" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H73" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -17596,10 +17587,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C74" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D74">
         <v>46</v>
@@ -17608,13 +17599,13 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G74" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H74" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -17622,10 +17613,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C75" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D75">
         <v>25</v>
@@ -17634,13 +17625,13 @@
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G75" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H75" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -17648,10 +17639,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C76" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D76">
         <v>53</v>
@@ -17660,13 +17651,13 @@
         <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G76" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H76" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -17674,10 +17665,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C77" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D77">
         <v>18</v>
@@ -17686,13 +17677,13 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G77" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H77" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -17700,10 +17691,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C78" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D78">
         <v>34</v>
@@ -17712,13 +17703,13 @@
         <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G78" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="H78" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -17726,10 +17717,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C79" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -17738,13 +17729,13 @@
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G79" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H79" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -17752,10 +17743,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C80" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D80">
         <v>29</v>
@@ -17764,13 +17755,13 @@
         <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G80" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H80" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -17778,10 +17769,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C81" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D81">
         <v>58</v>
@@ -17790,13 +17781,13 @@
         <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G81" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H81" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -17804,10 +17795,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C82" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D82">
         <v>36</v>
@@ -17816,13 +17807,13 @@
         <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G82" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H82" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -17830,10 +17821,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C83" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D83">
         <v>45</v>
@@ -17842,13 +17833,13 @@
         <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G83" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H83" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -17856,10 +17847,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C84" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D84">
         <v>18</v>
@@ -17868,13 +17859,13 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G84" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H84" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -17882,10 +17873,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C85" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D85">
         <v>74</v>
@@ -17894,13 +17885,13 @@
         <v>70</v>
       </c>
       <c r="F85" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G85" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H85" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -17908,10 +17899,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C86" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D86">
         <v>41</v>
@@ -17920,13 +17911,13 @@
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G86" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H86" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -17934,10 +17925,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C87" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D87">
         <v>62</v>
@@ -17946,13 +17937,13 @@
         <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G87" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="H87" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -17960,10 +17951,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C88" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D88">
         <v>47</v>
@@ -17972,13 +17963,13 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G88" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="H88" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -17986,10 +17977,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D89">
         <v>26</v>
@@ -17998,13 +17989,13 @@
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G89" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H89" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -18012,10 +18003,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C90" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D90">
         <v>54</v>
@@ -18024,13 +18015,13 @@
         <v>51</v>
       </c>
       <c r="F90" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G90" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="H90" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -18038,10 +18029,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C91" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D91">
         <v>19</v>
@@ -18050,13 +18041,13 @@
         <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G91" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H91" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -18064,10 +18055,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C92" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D92">
         <v>35</v>
@@ -18076,13 +18067,13 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G92" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H92" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -18090,10 +18081,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C93" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D93">
         <v>22</v>
@@ -18102,13 +18093,13 @@
         <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G93" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H93" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -18116,10 +18107,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C94" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D94">
         <v>30</v>
@@ -18128,13 +18119,13 @@
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G94" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="H94" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -18142,10 +18133,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C95" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D95">
         <v>59</v>
@@ -18154,13 +18145,13 @@
         <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G95" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H95" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -18168,10 +18159,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C96" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D96">
         <v>37</v>
@@ -18180,13 +18171,13 @@
         <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G96" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H96" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -18194,10 +18185,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C97" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D97">
         <v>46</v>
@@ -18206,13 +18197,13 @@
         <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G97" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H97" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -18238,61 +18229,61 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:11" ht="17.399999999999999">
-      <c r="B2" s="238" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="I2" s="238" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
+      <c r="B2" s="222" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="I2" s="222" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
     </row>
     <row r="3" spans="2:11" ht="15.6">
-      <c r="B3" s="256" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C3" s="256"/>
+      <c r="B3" s="257" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="50"/>
       <c r="I3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="38" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D4" s="50"/>
       <c r="I4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="38" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D5" s="50"/>
       <c r="I5" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="38" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" s="50"/>
       <c r="I6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -18301,58 +18292,58 @@
       </c>
       <c r="D7" s="50"/>
       <c r="I7" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6">
       <c r="B8" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D8" s="50"/>
       <c r="I8" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="272.25" customHeight="1">
       <c r="B9" s="38" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D9" s="50"/>
     </row>
     <row r="10" spans="2:11" ht="18.75" customHeight="1">
       <c r="B10" s="38" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D10" s="50"/>
     </row>
     <row r="11" spans="2:11" ht="18.75" customHeight="1">
       <c r="B11" s="38" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D11" s="50"/>
     </row>
     <row r="12" spans="2:11" ht="15.6">
-      <c r="B12" s="256" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C12" s="256"/>
+      <c r="B12" s="257" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C12" s="257"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="38" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
@@ -18364,7 +18355,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D14" s="50"/>
     </row>
@@ -18382,7 +18373,7 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D16" s="50"/>
     </row>
@@ -18391,108 +18382,108 @@
         <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="38" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C18" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D18" s="50"/>
     </row>
     <row r="19" spans="2:4" ht="15.6">
-      <c r="B19" s="256" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C19" s="256"/>
+      <c r="B19" s="257" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C19" s="257"/>
       <c r="D19" s="50"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="38" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C20" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="38" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C21" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="38" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="14.4" thickBot="1">
       <c r="B23" s="38" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.399999999999999">
-      <c r="B24" s="238" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C24" s="238"/>
-      <c r="D24" s="238"/>
+      <c r="B24" s="222" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1">
-      <c r="B25" s="256" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C25" s="256"/>
+      <c r="B25" s="257" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C25" s="257"/>
       <c r="D25" s="50"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="38" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D26" s="50"/>
     </row>
     <row r="27" spans="2:4" ht="14.4">
       <c r="B27" s="38" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D27" s="50"/>
     </row>
     <row r="28" spans="2:4" ht="14.4">
       <c r="B28" s="38" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D28" s="50"/>
     </row>
@@ -18505,50 +18496,50 @@
     </row>
     <row r="30" spans="2:4" ht="14.4">
       <c r="B30" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D30" s="50"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="38" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C31" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D31" s="50"/>
     </row>
     <row r="32" spans="2:4" ht="14.4">
       <c r="B32" s="38" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D32" s="50"/>
     </row>
     <row r="33" spans="2:4" ht="248.4">
       <c r="B33" s="38" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="D33" s="50"/>
     </row>
     <row r="34" spans="2:4" ht="15.6">
-      <c r="B34" s="256" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C34" s="189"/>
+      <c r="B34" s="257" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C34" s="190"/>
       <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="38" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C35" s="27">
         <v>0</v>
@@ -18578,7 +18569,7 @@
         <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D38" s="50"/>
     </row>
@@ -18587,46 +18578,46 @@
         <v>245</v>
       </c>
       <c r="C39" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D39" s="50"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="38" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C40" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="2:4" ht="15.6">
-      <c r="B41" s="256" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C41" s="189"/>
+      <c r="B41" s="257" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C41" s="190"/>
       <c r="D41" s="50"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="38" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C42" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="38" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C43" s="38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>1216</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="14.4" thickBot="1">
@@ -18634,34 +18625,34 @@
       <c r="D44" s="51"/>
     </row>
     <row r="45" spans="2:4" ht="17.399999999999999">
-      <c r="B45" s="238" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C45" s="257"/>
-      <c r="D45" s="258"/>
+      <c r="B45" s="222" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C45" s="258"/>
+      <c r="D45" s="259"/>
     </row>
     <row r="46" spans="2:4" ht="15.6">
-      <c r="B46" s="256" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C46" s="189"/>
+      <c r="B46" s="257" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C46" s="190"/>
       <c r="D46" s="50"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="38" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D47" s="50"/>
     </row>
     <row r="48" spans="2:4" ht="15.6">
       <c r="B48" s="38" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D48" s="50"/>
     </row>
@@ -18674,59 +18665,59 @@
     </row>
     <row r="50" spans="2:4" ht="15.6">
       <c r="B50" s="38" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D50" s="50"/>
     </row>
     <row r="51" spans="2:4" ht="14.4">
       <c r="B51" s="38" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D51" s="50"/>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="38" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C52" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="38" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D53" s="50"/>
     </row>
     <row r="54" spans="2:4" ht="234.6">
       <c r="B54" s="38" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D54" s="50"/>
     </row>
     <row r="55" spans="2:4" ht="15.6">
-      <c r="B55" s="256" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C55" s="189"/>
+      <c r="B55" s="257" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C55" s="190"/>
       <c r="D55" s="50"/>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="38" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C56" s="27">
         <v>0</v>
@@ -18738,7 +18729,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D57" s="50"/>
     </row>
@@ -18756,7 +18747,7 @@
         <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D59" s="50"/>
     </row>
@@ -18765,35 +18756,35 @@
         <v>245</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D60" s="50"/>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="38" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C61" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D61" s="50"/>
     </row>
     <row r="62" spans="2:4" ht="15.6">
-      <c r="B62" s="256" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C62" s="189"/>
+      <c r="B62" s="257" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C62" s="190"/>
       <c r="D62" s="50"/>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="38" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C63" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="14.4" thickBot="1">
